--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NAC9-EQUIPO MINIBASICO ARIX # 1.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NAC9-EQUIPO MINIBASICO ARIX # 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BF9E35-DA84-484B-AC34-C44090434B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914DC0C6-FBB6-4107-AA63-E78A24B742A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -225,22 +225,22 @@
     <t>DESPERIO FINO</t>
   </si>
   <si>
-    <t>DESPERIO FINO CURVO</t>
-  </si>
-  <si>
     <t>INSTRUMENTAL MINIBASICO MANO ARIX # 1</t>
   </si>
   <si>
-    <t>OSTEOTOMO SMALL</t>
-  </si>
-  <si>
-    <t>OSTEOTOMO MEDIUM</t>
-  </si>
-  <si>
     <t>OSTEOTOMO LARGE</t>
   </si>
   <si>
     <t xml:space="preserve">OSTEOTOMO FINO CON IMPACTOR </t>
+  </si>
+  <si>
+    <t>DESPERIO FINO CURVO MANGO MADERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSTEOTOMO SMALL PLANO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSTEOTOMO MEDIUM PLANO </t>
   </si>
 </sst>
 </file>
@@ -1139,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="30" customHeight="1"/>
@@ -1205,7 +1205,7 @@
       <c r="B5" s="32"/>
       <c r="C5" s="33">
         <f ca="1">NOW()</f>
-        <v>45387.736767476854</v>
+        <v>45397.663974884257</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>1</v>
@@ -1485,7 +1485,7 @@
     <row r="30" spans="1:12" ht="18">
       <c r="B30" s="48"/>
       <c r="C30" s="49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="18">
@@ -1549,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="19.5" customHeight="1">
@@ -1565,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="53" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="19.5" customHeight="1">
@@ -1573,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="53" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="19.5" customHeight="1">
@@ -1581,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="53" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="19.5" customHeight="1">
@@ -1589,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="53" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="18.75" customHeight="1">
